--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.00358496113081494</v>
+        <v>-0.00515214134517856</v>
       </c>
       <c r="C2">
-        <v>0.6931242531311932</v>
+        <v>0.6651924495933969</v>
       </c>
       <c r="D2">
-        <v>0.7842495797888642</v>
+        <v>0.7443617204222924</v>
       </c>
       <c r="E2">
-        <v>0.8855786694522764</v>
+        <v>0.8627640004209103</v>
       </c>
       <c r="F2">
-        <v>0.9112454664186743</v>
+        <v>0.8863899424499349</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04331857812912171</v>
+        <v>-0.04706953193124818</v>
       </c>
       <c r="C3">
-        <v>0.7625867681689408</v>
+        <v>0.7263783780799662</v>
       </c>
       <c r="D3">
-        <v>0.9603448946155727</v>
+        <v>0.9076748761767716</v>
       </c>
       <c r="E3">
-        <v>0.9799718846046415</v>
+        <v>0.9527197259303344</v>
       </c>
       <c r="F3">
-        <v>1.009144523899933</v>
+        <v>0.9791433241278349</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.01534207773734565</v>
+        <v>0.008980548322284209</v>
       </c>
       <c r="C4">
-        <v>0.745248518458719</v>
+        <v>0.7068694245681296</v>
       </c>
       <c r="D4">
-        <v>0.8339475222211503</v>
+        <v>0.7853984072668317</v>
       </c>
       <c r="E4">
-        <v>0.9132072723216511</v>
+        <v>0.8862270630413133</v>
       </c>
       <c r="F4">
-        <v>0.9430233042701764</v>
+        <v>0.9134550436843235</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1445430903711735</v>
+        <v>0.130843318123659</v>
       </c>
       <c r="C5">
-        <v>0.6725037278675441</v>
+        <v>0.6351380739751387</v>
       </c>
       <c r="D5">
-        <v>0.6870412132920996</v>
+        <v>0.6444494568402878</v>
       </c>
       <c r="E5">
-        <v>0.8288794926236862</v>
+        <v>0.8027760938395511</v>
       </c>
       <c r="F5">
-        <v>0.8448257480844689</v>
+        <v>0.8180167776226784</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.08767964572142632</v>
+        <v>0.07882986512450849</v>
       </c>
       <c r="C6">
-        <v>0.6542750086109922</v>
+        <v>0.6136611455857488</v>
       </c>
       <c r="D6">
-        <v>0.6147864470795082</v>
+        <v>0.5739360866201003</v>
       </c>
       <c r="E6">
-        <v>0.7840831888769891</v>
+        <v>0.7575856958919567</v>
       </c>
       <c r="F6">
-        <v>0.8085781526034749</v>
+        <v>0.779918909922613</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1453174589540343</v>
+        <v>0.1364943803647256</v>
       </c>
       <c r="C7">
-        <v>0.6087509194500906</v>
+        <v>0.5668254508253494</v>
       </c>
       <c r="D7">
-        <v>0.6487798863122874</v>
+        <v>0.6024723940093601</v>
       </c>
       <c r="E7">
-        <v>0.8054687370173267</v>
+        <v>0.7761909520275021</v>
       </c>
       <c r="F7">
-        <v>0.8246016913062022</v>
+        <v>0.7929392009836149</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1237696033091319</v>
+        <v>0.1194123702819532</v>
       </c>
       <c r="C8">
-        <v>0.6765798922558131</v>
+        <v>0.6296987908481204</v>
       </c>
       <c r="D8">
-        <v>0.6779611942911513</v>
+        <v>0.6261569364748241</v>
       </c>
       <c r="E8">
-        <v>0.8233839895766442</v>
+        <v>0.7913007876116541</v>
       </c>
       <c r="F8">
-        <v>0.8502249624794078</v>
+        <v>0.8141800113140473</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2322115261873061</v>
+        <v>0.2385215453226533</v>
       </c>
       <c r="C9">
-        <v>0.5913338812939769</v>
+        <v>0.5677170375037683</v>
       </c>
       <c r="D9">
-        <v>0.5425070707236781</v>
+        <v>0.505199978683133</v>
       </c>
       <c r="E9">
-        <v>0.736550793037166</v>
+        <v>0.7107742107611481</v>
       </c>
       <c r="F9">
-        <v>0.7331052895815062</v>
+        <v>0.6993301608877609</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.09307030529824201</v>
+        <v>0.1002722471476047</v>
       </c>
       <c r="C10">
-        <v>0.418989551687894</v>
+        <v>0.3965624711381974</v>
       </c>
       <c r="D10">
-        <v>0.2494836534431304</v>
+        <v>0.2295019047709758</v>
       </c>
       <c r="E10">
-        <v>0.4994833865536775</v>
+        <v>0.4790635706991044</v>
       </c>
       <c r="F10">
-        <v>0.5172808948024086</v>
+        <v>0.49131671999357</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1718199794759669</v>
+        <v>0.1714703583411825</v>
       </c>
       <c r="C11">
-        <v>0.4146675879974375</v>
+        <v>0.390033206010506</v>
       </c>
       <c r="D11">
-        <v>0.2967142255533736</v>
+        <v>0.2698760920897213</v>
       </c>
       <c r="E11">
-        <v>0.5447148112116776</v>
+        <v>0.519495998146012</v>
       </c>
       <c r="F11">
-        <v>0.548261922106609</v>
+        <v>0.5169074796862885</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.00515214134517856</v>
+        <v>-0.04706953193124818</v>
       </c>
       <c r="C2">
-        <v>0.6651924495933969</v>
+        <v>0.7263783780799662</v>
       </c>
       <c r="D2">
-        <v>0.7443617204222924</v>
+        <v>0.9076748761767716</v>
       </c>
       <c r="E2">
-        <v>0.8627640004209103</v>
+        <v>0.9527197259303344</v>
       </c>
       <c r="F2">
-        <v>0.8863899424499349</v>
+        <v>0.9791433241278349</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04706953193124818</v>
+        <v>0.008980548322284209</v>
       </c>
       <c r="C3">
-        <v>0.7263783780799662</v>
+        <v>0.7068694245681296</v>
       </c>
       <c r="D3">
-        <v>0.9076748761767716</v>
+        <v>0.7853984072668317</v>
       </c>
       <c r="E3">
-        <v>0.9527197259303344</v>
+        <v>0.8862270630413133</v>
       </c>
       <c r="F3">
-        <v>0.9791433241278349</v>
+        <v>0.9134550436843235</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.008980548322284209</v>
+        <v>0.130843318123659</v>
       </c>
       <c r="C4">
-        <v>0.7068694245681296</v>
+        <v>0.6351380739751387</v>
       </c>
       <c r="D4">
-        <v>0.7853984072668317</v>
+        <v>0.6444494568402878</v>
       </c>
       <c r="E4">
-        <v>0.8862270630413133</v>
+        <v>0.8027760938395511</v>
       </c>
       <c r="F4">
-        <v>0.9134550436843235</v>
+        <v>0.8180167776226784</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.130843318123659</v>
+        <v>0.07882986512450849</v>
       </c>
       <c r="C5">
-        <v>0.6351380739751387</v>
+        <v>0.6136611455857488</v>
       </c>
       <c r="D5">
-        <v>0.6444494568402878</v>
+        <v>0.5739360866201003</v>
       </c>
       <c r="E5">
-        <v>0.8027760938395511</v>
+        <v>0.7575856958919567</v>
       </c>
       <c r="F5">
-        <v>0.8180167776226784</v>
+        <v>0.779918909922613</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.07882986512450849</v>
+        <v>0.1364943803647256</v>
       </c>
       <c r="C6">
-        <v>0.6136611455857488</v>
+        <v>0.5668254508253494</v>
       </c>
       <c r="D6">
-        <v>0.5739360866201003</v>
+        <v>0.6024723940093601</v>
       </c>
       <c r="E6">
-        <v>0.7575856958919567</v>
+        <v>0.7761909520275021</v>
       </c>
       <c r="F6">
-        <v>0.779918909922613</v>
+        <v>0.7929392009836149</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1364943803647256</v>
+        <v>0.1194123702819532</v>
       </c>
       <c r="C7">
-        <v>0.5668254508253494</v>
+        <v>0.6296987908481204</v>
       </c>
       <c r="D7">
-        <v>0.6024723940093601</v>
+        <v>0.6261569364748241</v>
       </c>
       <c r="E7">
-        <v>0.7761909520275021</v>
+        <v>0.7913007876116541</v>
       </c>
       <c r="F7">
-        <v>0.7929392009836149</v>
+        <v>0.8141800113140473</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1194123702819532</v>
+        <v>0.2385215453226533</v>
       </c>
       <c r="C8">
-        <v>0.6296987908481204</v>
+        <v>0.5677170375037683</v>
       </c>
       <c r="D8">
-        <v>0.6261569364748241</v>
+        <v>0.505199978683133</v>
       </c>
       <c r="E8">
-        <v>0.7913007876116541</v>
+        <v>0.7107742107611481</v>
       </c>
       <c r="F8">
-        <v>0.8141800113140473</v>
+        <v>0.6993301608877609</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2385215453226533</v>
+        <v>0.1002722471476047</v>
       </c>
       <c r="C9">
-        <v>0.5677170375037683</v>
+        <v>0.3965624711381974</v>
       </c>
       <c r="D9">
-        <v>0.505199978683133</v>
+        <v>0.2295019047709758</v>
       </c>
       <c r="E9">
-        <v>0.7107742107611481</v>
+        <v>0.4790635706991044</v>
       </c>
       <c r="F9">
-        <v>0.6993301608877609</v>
+        <v>0.49131671999357</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1002722471476047</v>
+        <v>0.1714703583411825</v>
       </c>
       <c r="C10">
-        <v>0.3965624711381974</v>
+        <v>0.390033206010506</v>
       </c>
       <c r="D10">
-        <v>0.2295019047709758</v>
+        <v>0.2698760920897213</v>
       </c>
       <c r="E10">
-        <v>0.4790635706991044</v>
+        <v>0.519495998146012</v>
       </c>
       <c r="F10">
-        <v>0.49131671999357</v>
+        <v>0.5169074796862885</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1714703583411825</v>
+        <v>0.1087828097550494</v>
       </c>
       <c r="C11">
-        <v>0.390033206010506</v>
+        <v>0.3930655897532851</v>
       </c>
       <c r="D11">
-        <v>0.2698760920897213</v>
+        <v>0.2412922028369822</v>
       </c>
       <c r="E11">
-        <v>0.519495998146012</v>
+        <v>0.4912150270879161</v>
       </c>
       <c r="F11">
-        <v>0.5169074796862885</v>
+        <v>0.5080756007043895</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.04706953193124818</v>
+        <v>-0.00515214134517856</v>
       </c>
       <c r="C2">
-        <v>0.7263783780799662</v>
+        <v>0.6651924495933969</v>
       </c>
       <c r="D2">
-        <v>0.9076748761767716</v>
+        <v>0.7443617204222924</v>
       </c>
       <c r="E2">
-        <v>0.9527197259303344</v>
+        <v>0.8627640004209103</v>
       </c>
       <c r="F2">
-        <v>0.9791433241278349</v>
+        <v>0.8863899424499349</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.008980548322284209</v>
+        <v>-0.04706953193124818</v>
       </c>
       <c r="C3">
-        <v>0.7068694245681296</v>
+        <v>0.7263783780799662</v>
       </c>
       <c r="D3">
-        <v>0.7853984072668317</v>
+        <v>0.9076748761767716</v>
       </c>
       <c r="E3">
-        <v>0.8862270630413133</v>
+        <v>0.9527197259303344</v>
       </c>
       <c r="F3">
-        <v>0.9134550436843235</v>
+        <v>0.9791433241278349</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.130843318123659</v>
+        <v>0.008980548322284209</v>
       </c>
       <c r="C4">
-        <v>0.6351380739751387</v>
+        <v>0.7068694245681296</v>
       </c>
       <c r="D4">
-        <v>0.6444494568402878</v>
+        <v>0.7853984072668317</v>
       </c>
       <c r="E4">
-        <v>0.8027760938395511</v>
+        <v>0.8862270630413133</v>
       </c>
       <c r="F4">
-        <v>0.8180167776226784</v>
+        <v>0.9134550436843235</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.07882986512450849</v>
+        <v>0.130843318123659</v>
       </c>
       <c r="C5">
-        <v>0.6136611455857488</v>
+        <v>0.6351380739751387</v>
       </c>
       <c r="D5">
-        <v>0.5739360866201003</v>
+        <v>0.6444494568402878</v>
       </c>
       <c r="E5">
-        <v>0.7575856958919567</v>
+        <v>0.8027760938395511</v>
       </c>
       <c r="F5">
-        <v>0.779918909922613</v>
+        <v>0.8180167776226784</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1364943803647256</v>
+        <v>0.07882986512450849</v>
       </c>
       <c r="C6">
-        <v>0.5668254508253494</v>
+        <v>0.6136611455857488</v>
       </c>
       <c r="D6">
-        <v>0.6024723940093601</v>
+        <v>0.5739360866201003</v>
       </c>
       <c r="E6">
-        <v>0.7761909520275021</v>
+        <v>0.7575856958919567</v>
       </c>
       <c r="F6">
-        <v>0.7929392009836149</v>
+        <v>0.779918909922613</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1194123702819532</v>
+        <v>0.1364943803647256</v>
       </c>
       <c r="C7">
-        <v>0.6296987908481204</v>
+        <v>0.5668254508253494</v>
       </c>
       <c r="D7">
-        <v>0.6261569364748241</v>
+        <v>0.6024723940093601</v>
       </c>
       <c r="E7">
-        <v>0.7913007876116541</v>
+        <v>0.7761909520275021</v>
       </c>
       <c r="F7">
-        <v>0.8141800113140473</v>
+        <v>0.7929392009836149</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2385215453226533</v>
+        <v>0.1194123702819532</v>
       </c>
       <c r="C8">
-        <v>0.5677170375037683</v>
+        <v>0.6296987908481204</v>
       </c>
       <c r="D8">
-        <v>0.505199978683133</v>
+        <v>0.6261569364748241</v>
       </c>
       <c r="E8">
-        <v>0.7107742107611481</v>
+        <v>0.7913007876116541</v>
       </c>
       <c r="F8">
-        <v>0.6993301608877609</v>
+        <v>0.8141800113140473</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1002722471476047</v>
+        <v>0.2385215453226533</v>
       </c>
       <c r="C9">
-        <v>0.3965624711381974</v>
+        <v>0.5677170375037683</v>
       </c>
       <c r="D9">
-        <v>0.2295019047709758</v>
+        <v>0.505199978683133</v>
       </c>
       <c r="E9">
-        <v>0.4790635706991044</v>
+        <v>0.7107742107611481</v>
       </c>
       <c r="F9">
-        <v>0.49131671999357</v>
+        <v>0.6993301608877609</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1714703583411825</v>
+        <v>0.1002722471476047</v>
       </c>
       <c r="C10">
-        <v>0.390033206010506</v>
+        <v>0.3965624711381974</v>
       </c>
       <c r="D10">
-        <v>0.2698760920897213</v>
+        <v>0.2295019047709758</v>
       </c>
       <c r="E10">
-        <v>0.519495998146012</v>
+        <v>0.4790635706991044</v>
       </c>
       <c r="F10">
-        <v>0.5169074796862885</v>
+        <v>0.49131671999357</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1087828097550494</v>
+        <v>0.1714703583411825</v>
       </c>
       <c r="C11">
-        <v>0.3930655897532851</v>
+        <v>0.390033206010506</v>
       </c>
       <c r="D11">
-        <v>0.2412922028369822</v>
+        <v>0.2698760920897213</v>
       </c>
       <c r="E11">
-        <v>0.4912150270879161</v>
+        <v>0.519495998146012</v>
       </c>
       <c r="F11">
-        <v>0.5080756007043895</v>
+        <v>0.5169074796862885</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
